--- a/inst/dat/site_coverage_messy.xlsx
+++ b/inst/dat/site_coverage_messy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neale\Documents\Applied Epi\repos\epitutorials\inst\dat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BF03694-59C8-405F-9703-C6229A96C4F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A697D0D-5BD2-4153-9999-9ABC8BE6F065}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="75">
   <si>
     <t>Province</t>
   </si>
@@ -320,7 +320,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="14" x14ac:knownFonts="1">
     <font>
@@ -637,33 +637,33 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -995,30 +995,30 @@
       <c r="E4" s="4"/>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
-      <c r="H4" s="35" t="s">
+      <c r="H4" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="35"/>
-      <c r="J4" s="35"/>
-      <c r="K4" s="35"/>
-      <c r="L4" s="35"/>
-      <c r="M4" s="35"/>
-      <c r="N4" s="35"/>
-      <c r="O4" s="35"/>
-      <c r="P4" s="35"/>
-      <c r="Q4" s="35"/>
-      <c r="R4" s="35"/>
-      <c r="S4" s="35"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="41"/>
+      <c r="L4" s="41"/>
+      <c r="M4" s="41"/>
+      <c r="N4" s="41"/>
+      <c r="O4" s="41"/>
+      <c r="P4" s="41"/>
+      <c r="Q4" s="41"/>
+      <c r="R4" s="41"/>
+      <c r="S4" s="41"/>
       <c r="T4" s="8"/>
       <c r="U4" s="14"/>
     </row>
     <row r="5" spans="2:25" s="9" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="4"/>
-      <c r="C5" s="36" t="s">
+      <c r="C5" s="42" t="s">
         <v>70</v>
       </c>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
       <c r="H5" s="8" t="s">
@@ -2013,482 +2013,482 @@
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:17" ht="31" x14ac:dyDescent="0.7">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="36" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="45"/>
       <c r="B2" s="46"/>
-      <c r="C2" s="43" t="s">
+      <c r="C2" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43"/>
-      <c r="N2" s="43"/>
-      <c r="O2" s="43"/>
-      <c r="P2" s="43"/>
-      <c r="Q2" s="43"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="47"/>
+      <c r="L2" s="47"/>
+      <c r="M2" s="47"/>
+      <c r="N2" s="47"/>
+      <c r="O2" s="47"/>
+      <c r="P2" s="47"/>
+      <c r="Q2" s="47"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="47" t="s">
         <v>70</v>
       </c>
-      <c r="B3" s="43"/>
-      <c r="C3" s="44" t="s">
+      <c r="B3" s="47"/>
+      <c r="C3" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="44" t="s">
+      <c r="D3" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="44" t="s">
+      <c r="E3" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="44" t="s">
+      <c r="F3" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="44" t="s">
+      <c r="G3" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="44" t="s">
+      <c r="H3" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="44" t="s">
+      <c r="I3" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="44" t="s">
+      <c r="J3" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="44" t="s">
+      <c r="K3" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="44" t="s">
+      <c r="L3" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="44" t="s">
+      <c r="M3" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="44" t="s">
+      <c r="N3" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="O3" s="44" t="s">
+      <c r="O3" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="P3" s="44" t="s">
+      <c r="P3" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="Q3" s="44" t="s">
+      <c r="Q3" s="39" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="44" t="s">
+      <c r="B4" s="39" t="s">
         <v>72</v>
       </c>
-      <c r="C4" s="44">
+      <c r="C4" s="39">
         <v>31</v>
       </c>
-      <c r="D4" s="44">
+      <c r="D4" s="39">
         <v>1</v>
       </c>
-      <c r="E4" s="44">
+      <c r="E4" s="39">
         <v>2</v>
       </c>
-      <c r="F4" s="44">
+      <c r="F4" s="39">
         <v>3</v>
       </c>
-      <c r="G4" s="44">
+      <c r="G4" s="39">
         <v>4</v>
       </c>
-      <c r="H4" s="44">
+      <c r="H4" s="39">
         <v>5</v>
       </c>
-      <c r="I4" s="44">
+      <c r="I4" s="39">
         <v>6</v>
       </c>
-      <c r="J4" s="44">
+      <c r="J4" s="39">
         <v>7</v>
       </c>
-      <c r="K4" s="44">
+      <c r="K4" s="39">
         <v>8</v>
       </c>
-      <c r="L4" s="44">
+      <c r="L4" s="39">
         <v>9</v>
       </c>
-      <c r="M4" s="44">
+      <c r="M4" s="39">
         <v>10</v>
       </c>
-      <c r="N4" s="44">
+      <c r="N4" s="39">
         <v>11</v>
       </c>
-      <c r="O4" s="44">
+      <c r="O4" s="39">
         <v>12</v>
       </c>
-      <c r="P4" s="44">
+      <c r="P4" s="39">
         <v>13</v>
       </c>
-      <c r="Q4" s="44">
+      <c r="Q4" s="39">
         <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A5" s="40" t="s">
+      <c r="A5" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="B5" s="39">
+      <c r="B5" s="37">
         <v>1</v>
       </c>
-      <c r="C5" s="41" t="s">
-        <v>73</v>
-      </c>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="39"/>
-      <c r="J5" s="39"/>
-      <c r="K5" s="39"/>
-      <c r="L5" s="39"/>
-      <c r="M5" s="39"/>
-      <c r="N5" s="39"/>
-      <c r="O5" s="39"/>
-      <c r="P5" s="39"/>
-      <c r="Q5" s="39"/>
+      <c r="C5" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="37"/>
+      <c r="K5" s="37"/>
+      <c r="L5" s="37"/>
+      <c r="M5" s="37"/>
+      <c r="N5" s="37"/>
+      <c r="O5" s="37"/>
+      <c r="P5" s="37"/>
+      <c r="Q5" s="37"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A6" s="40"/>
-      <c r="B6" s="39">
+      <c r="A6" s="43"/>
+      <c r="B6" s="37">
         <v>2</v>
       </c>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="39"/>
-      <c r="I6" s="39"/>
-      <c r="J6" s="39"/>
-      <c r="K6" s="39"/>
-      <c r="L6" s="39"/>
-      <c r="M6" s="39"/>
-      <c r="N6" s="39"/>
-      <c r="O6" s="39"/>
-      <c r="P6" s="39"/>
-      <c r="Q6" s="39"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="37"/>
+      <c r="J6" s="37"/>
+      <c r="K6" s="37"/>
+      <c r="L6" s="37"/>
+      <c r="M6" s="37"/>
+      <c r="N6" s="37"/>
+      <c r="O6" s="37"/>
+      <c r="P6" s="37"/>
+      <c r="Q6" s="37"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A7" s="40"/>
-      <c r="B7" s="39">
+      <c r="A7" s="43"/>
+      <c r="B7" s="37">
         <v>3</v>
       </c>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="47" t="s">
-        <v>73</v>
-      </c>
-      <c r="F7" s="47" t="s">
-        <v>73</v>
-      </c>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39"/>
-      <c r="I7" s="39"/>
-      <c r="J7" s="39"/>
-      <c r="K7" s="39"/>
-      <c r="L7" s="39"/>
-      <c r="M7" s="39"/>
-      <c r="N7" s="39"/>
-      <c r="O7" s="39"/>
-      <c r="P7" s="39"/>
-      <c r="Q7" s="39"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="F7" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="37"/>
+      <c r="J7" s="37"/>
+      <c r="K7" s="37"/>
+      <c r="L7" s="37"/>
+      <c r="M7" s="37"/>
+      <c r="N7" s="37"/>
+      <c r="O7" s="37"/>
+      <c r="P7" s="37"/>
+      <c r="Q7" s="37"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A8" s="40"/>
-      <c r="B8" s="39">
+      <c r="A8" s="43"/>
+      <c r="B8" s="37">
         <v>4</v>
       </c>
-      <c r="C8" s="39"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="41" t="s">
-        <v>73</v>
-      </c>
-      <c r="F8" s="39"/>
-      <c r="G8" s="39"/>
-      <c r="H8" s="39"/>
-      <c r="I8" s="39"/>
-      <c r="J8" s="39"/>
-      <c r="K8" s="39"/>
-      <c r="L8" s="39"/>
-      <c r="M8" s="39"/>
-      <c r="N8" s="39"/>
-      <c r="O8" s="39"/>
-      <c r="P8" s="39"/>
-      <c r="Q8" s="39"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="37"/>
+      <c r="J8" s="37"/>
+      <c r="K8" s="37"/>
+      <c r="L8" s="37"/>
+      <c r="M8" s="37"/>
+      <c r="N8" s="37"/>
+      <c r="O8" s="37"/>
+      <c r="P8" s="37"/>
+      <c r="Q8" s="37"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A9" s="40"/>
-      <c r="B9" s="39">
+      <c r="A9" s="43"/>
+      <c r="B9" s="37">
         <v>5</v>
       </c>
-      <c r="C9" s="39"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="47" t="s">
-        <v>73</v>
-      </c>
-      <c r="H9" s="47" t="s">
-        <v>73</v>
-      </c>
-      <c r="I9" s="47" t="s">
-        <v>73</v>
-      </c>
-      <c r="J9" s="47" t="s">
-        <v>73</v>
-      </c>
-      <c r="K9" s="47" t="s">
-        <v>73</v>
-      </c>
-      <c r="L9" s="39"/>
-      <c r="M9" s="47" t="s">
-        <v>73</v>
-      </c>
-      <c r="N9" s="47" t="s">
-        <v>73</v>
-      </c>
-      <c r="O9" s="47" t="s">
-        <v>73</v>
-      </c>
-      <c r="P9" s="39"/>
-      <c r="Q9" s="39"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="H9" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="I9" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="J9" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="K9" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="L9" s="37"/>
+      <c r="M9" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="N9" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="O9" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="P9" s="37"/>
+      <c r="Q9" s="37"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A10" s="40"/>
-      <c r="B10" s="39">
+      <c r="A10" s="43"/>
+      <c r="B10" s="37">
         <v>6</v>
       </c>
-      <c r="C10" s="39"/>
-      <c r="D10" s="39"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="39"/>
-      <c r="G10" s="39"/>
-      <c r="H10" s="39"/>
-      <c r="I10" s="39"/>
-      <c r="J10" s="39"/>
-      <c r="K10" s="39"/>
-      <c r="L10" s="39"/>
-      <c r="M10" s="39"/>
-      <c r="N10" s="39"/>
-      <c r="O10" s="39"/>
-      <c r="P10" s="39"/>
-      <c r="Q10" s="39"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="37"/>
+      <c r="J10" s="37"/>
+      <c r="K10" s="37"/>
+      <c r="L10" s="37"/>
+      <c r="M10" s="37"/>
+      <c r="N10" s="37"/>
+      <c r="O10" s="37"/>
+      <c r="P10" s="37"/>
+      <c r="Q10" s="37"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A11" s="40"/>
-      <c r="B11" s="39">
+      <c r="A11" s="43"/>
+      <c r="B11" s="37">
         <v>7</v>
       </c>
-      <c r="C11" s="39"/>
-      <c r="D11" s="41" t="s">
-        <v>73</v>
-      </c>
-      <c r="E11" s="39"/>
-      <c r="F11" s="41" t="s">
-        <v>73</v>
-      </c>
-      <c r="G11" s="39"/>
-      <c r="H11" s="41" t="s">
-        <v>73</v>
-      </c>
-      <c r="I11" s="39"/>
-      <c r="J11" s="41" t="s">
-        <v>73</v>
-      </c>
-      <c r="K11" s="39"/>
-      <c r="L11" s="39"/>
-      <c r="M11" s="39"/>
-      <c r="N11" s="39"/>
-      <c r="O11" s="39"/>
-      <c r="P11" s="39"/>
-      <c r="Q11" s="39"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="E11" s="37"/>
+      <c r="F11" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="G11" s="37"/>
+      <c r="H11" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="I11" s="37"/>
+      <c r="J11" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="K11" s="37"/>
+      <c r="L11" s="37"/>
+      <c r="M11" s="37"/>
+      <c r="N11" s="37"/>
+      <c r="O11" s="37"/>
+      <c r="P11" s="37"/>
+      <c r="Q11" s="37"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A12" s="40" t="s">
+      <c r="A12" s="43" t="s">
         <v>69</v>
       </c>
-      <c r="B12" s="39">
+      <c r="B12" s="37">
         <v>8</v>
       </c>
-      <c r="C12" s="41" t="s">
-        <v>73</v>
-      </c>
-      <c r="D12" s="39"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="39"/>
-      <c r="G12" s="39"/>
-      <c r="H12" s="39"/>
-      <c r="I12" s="39"/>
-      <c r="J12" s="39"/>
-      <c r="K12" s="39"/>
-      <c r="L12" s="39"/>
-      <c r="M12" s="39"/>
-      <c r="N12" s="39"/>
-      <c r="O12" s="39"/>
-      <c r="P12" s="39"/>
-      <c r="Q12" s="39"/>
+      <c r="C12" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="37"/>
+      <c r="I12" s="37"/>
+      <c r="J12" s="37"/>
+      <c r="K12" s="37"/>
+      <c r="L12" s="37"/>
+      <c r="M12" s="37"/>
+      <c r="N12" s="37"/>
+      <c r="O12" s="37"/>
+      <c r="P12" s="37"/>
+      <c r="Q12" s="37"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A13" s="40"/>
-      <c r="B13" s="39">
+      <c r="A13" s="43"/>
+      <c r="B13" s="37">
         <v>9</v>
       </c>
-      <c r="C13" s="39"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="39"/>
-      <c r="I13" s="39"/>
-      <c r="J13" s="39"/>
-      <c r="K13" s="39"/>
-      <c r="L13" s="39"/>
-      <c r="M13" s="39"/>
-      <c r="N13" s="39"/>
-      <c r="O13" s="39"/>
-      <c r="P13" s="39"/>
-      <c r="Q13" s="39"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="37"/>
+      <c r="I13" s="37"/>
+      <c r="J13" s="37"/>
+      <c r="K13" s="37"/>
+      <c r="L13" s="37"/>
+      <c r="M13" s="37"/>
+      <c r="N13" s="37"/>
+      <c r="O13" s="37"/>
+      <c r="P13" s="37"/>
+      <c r="Q13" s="37"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A14" s="40"/>
-      <c r="B14" s="39">
+      <c r="A14" s="43"/>
+      <c r="B14" s="37">
         <v>10</v>
       </c>
-      <c r="C14" s="39"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="42" t="s">
-        <v>73</v>
-      </c>
-      <c r="F14" s="42"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="39"/>
-      <c r="I14" s="39"/>
-      <c r="J14" s="39"/>
-      <c r="K14" s="39"/>
-      <c r="L14" s="39"/>
-      <c r="M14" s="39"/>
-      <c r="N14" s="39"/>
-      <c r="O14" s="39"/>
-      <c r="P14" s="39"/>
-      <c r="Q14" s="39"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="44" t="s">
+        <v>73</v>
+      </c>
+      <c r="F14" s="44"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="37"/>
+      <c r="I14" s="37"/>
+      <c r="J14" s="37"/>
+      <c r="K14" s="37"/>
+      <c r="L14" s="37"/>
+      <c r="M14" s="37"/>
+      <c r="N14" s="37"/>
+      <c r="O14" s="37"/>
+      <c r="P14" s="37"/>
+      <c r="Q14" s="37"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A15" s="40"/>
-      <c r="B15" s="39">
+      <c r="A15" s="43"/>
+      <c r="B15" s="37">
         <v>11</v>
       </c>
-      <c r="C15" s="39"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="41" t="s">
-        <v>73</v>
-      </c>
-      <c r="F15" s="39"/>
-      <c r="G15" s="39"/>
-      <c r="H15" s="39"/>
-      <c r="I15" s="39"/>
-      <c r="J15" s="39"/>
-      <c r="K15" s="39"/>
-      <c r="L15" s="39"/>
-      <c r="M15" s="39"/>
-      <c r="N15" s="39"/>
-      <c r="O15" s="39"/>
-      <c r="P15" s="39"/>
-      <c r="Q15" s="39"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="F15" s="37"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="37"/>
+      <c r="I15" s="37"/>
+      <c r="J15" s="37"/>
+      <c r="K15" s="37"/>
+      <c r="L15" s="37"/>
+      <c r="M15" s="37"/>
+      <c r="N15" s="37"/>
+      <c r="O15" s="37"/>
+      <c r="P15" s="37"/>
+      <c r="Q15" s="37"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A16" s="40"/>
-      <c r="B16" s="39">
+      <c r="A16" s="43"/>
+      <c r="B16" s="37">
         <v>12</v>
       </c>
-      <c r="C16" s="39"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="42" t="s">
-        <v>73</v>
-      </c>
-      <c r="H16" s="42"/>
-      <c r="I16" s="42"/>
-      <c r="J16" s="42"/>
-      <c r="K16" s="42"/>
-      <c r="L16" s="39"/>
-      <c r="M16" s="42" t="s">
-        <v>73</v>
-      </c>
-      <c r="N16" s="42"/>
-      <c r="O16" s="42"/>
-      <c r="P16" s="39"/>
-      <c r="Q16" s="39"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="44" t="s">
+        <v>73</v>
+      </c>
+      <c r="H16" s="44"/>
+      <c r="I16" s="44"/>
+      <c r="J16" s="44"/>
+      <c r="K16" s="44"/>
+      <c r="L16" s="37"/>
+      <c r="M16" s="44" t="s">
+        <v>73</v>
+      </c>
+      <c r="N16" s="44"/>
+      <c r="O16" s="44"/>
+      <c r="P16" s="37"/>
+      <c r="Q16" s="37"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A17" s="40"/>
-      <c r="B17" s="39">
+      <c r="A17" s="43"/>
+      <c r="B17" s="37">
         <v>13</v>
       </c>
-      <c r="C17" s="39"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="39"/>
-      <c r="G17" s="39"/>
-      <c r="H17" s="39"/>
-      <c r="I17" s="39"/>
-      <c r="J17" s="39"/>
-      <c r="K17" s="39"/>
-      <c r="L17" s="39"/>
-      <c r="M17" s="39"/>
-      <c r="N17" s="39"/>
-      <c r="O17" s="39"/>
-      <c r="P17" s="39"/>
-      <c r="Q17" s="39"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="37"/>
+      <c r="I17" s="37"/>
+      <c r="J17" s="37"/>
+      <c r="K17" s="37"/>
+      <c r="L17" s="37"/>
+      <c r="M17" s="37"/>
+      <c r="N17" s="37"/>
+      <c r="O17" s="37"/>
+      <c r="P17" s="37"/>
+      <c r="Q17" s="37"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A18" s="40"/>
-      <c r="B18" s="39">
+      <c r="A18" s="43"/>
+      <c r="B18" s="37">
         <v>14</v>
       </c>
-      <c r="C18" s="39"/>
-      <c r="D18" s="41" t="s">
-        <v>73</v>
-      </c>
-      <c r="E18" s="39"/>
-      <c r="F18" s="41" t="s">
-        <v>73</v>
-      </c>
-      <c r="G18" s="39"/>
-      <c r="H18" s="41" t="s">
-        <v>73</v>
-      </c>
-      <c r="I18" s="39"/>
-      <c r="J18" s="41" t="s">
-        <v>73</v>
-      </c>
-      <c r="K18" s="39"/>
-      <c r="L18" s="39"/>
-      <c r="M18" s="39"/>
-      <c r="N18" s="39"/>
-      <c r="O18" s="39"/>
-      <c r="P18" s="39"/>
-      <c r="Q18" s="39"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="E18" s="37"/>
+      <c r="F18" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="G18" s="37"/>
+      <c r="H18" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="I18" s="37"/>
+      <c r="J18" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="K18" s="37"/>
+      <c r="L18" s="37"/>
+      <c r="M18" s="37"/>
+      <c r="N18" s="37"/>
+      <c r="O18" s="37"/>
+      <c r="P18" s="37"/>
+      <c r="Q18" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -2509,480 +2509,484 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FAE9F5F-3B9F-45D4-AF0F-FEC4E68A1532}">
   <dimension ref="A1:Q18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="N26" sqref="N26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:17" ht="31" x14ac:dyDescent="0.7">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="36" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="45"/>
       <c r="B2" s="46"/>
-      <c r="C2" s="43" t="s">
+      <c r="C2" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43"/>
-      <c r="N2" s="43"/>
-      <c r="O2" s="43"/>
-      <c r="P2" s="43"/>
-      <c r="Q2" s="43"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="47"/>
+      <c r="L2" s="47"/>
+      <c r="M2" s="47"/>
+      <c r="N2" s="47"/>
+      <c r="O2" s="47"/>
+      <c r="P2" s="47"/>
+      <c r="Q2" s="47"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="47" t="s">
         <v>70</v>
       </c>
-      <c r="B3" s="43"/>
-      <c r="C3" s="44" t="s">
+      <c r="B3" s="47"/>
+      <c r="C3" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="44" t="s">
+      <c r="D3" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="44" t="s">
+      <c r="E3" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="44" t="s">
+      <c r="F3" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="44" t="s">
+      <c r="G3" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="44" t="s">
+      <c r="H3" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="44" t="s">
+      <c r="I3" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="44" t="s">
+      <c r="J3" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="44" t="s">
+      <c r="K3" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="44" t="s">
+      <c r="L3" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="44" t="s">
+      <c r="M3" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="44" t="s">
+      <c r="N3" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="O3" s="44" t="s">
+      <c r="O3" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="P3" s="44" t="s">
+      <c r="P3" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="Q3" s="44" t="s">
+      <c r="Q3" s="39" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="44" t="s">
+      <c r="B4" s="39" t="s">
         <v>72</v>
       </c>
-      <c r="C4" s="44">
+      <c r="C4" s="39">
         <v>31</v>
       </c>
-      <c r="D4" s="44">
+      <c r="D4" s="39">
         <v>1</v>
       </c>
-      <c r="E4" s="44">
+      <c r="E4" s="39">
         <v>2</v>
       </c>
-      <c r="F4" s="44">
+      <c r="F4" s="39">
         <v>3</v>
       </c>
-      <c r="G4" s="44">
+      <c r="G4" s="39">
         <v>4</v>
       </c>
-      <c r="H4" s="44">
+      <c r="H4" s="39">
         <v>5</v>
       </c>
-      <c r="I4" s="44">
+      <c r="I4" s="39">
         <v>6</v>
       </c>
-      <c r="J4" s="44">
+      <c r="J4" s="39">
         <v>7</v>
       </c>
-      <c r="K4" s="44">
+      <c r="K4" s="39">
         <v>8</v>
       </c>
-      <c r="L4" s="44">
+      <c r="L4" s="39">
         <v>9</v>
       </c>
-      <c r="M4" s="44">
+      <c r="M4" s="39">
         <v>10</v>
       </c>
-      <c r="N4" s="44">
+      <c r="N4" s="39">
         <v>11</v>
       </c>
-      <c r="O4" s="44">
+      <c r="O4" s="39">
         <v>12</v>
       </c>
-      <c r="P4" s="44">
+      <c r="P4" s="39">
         <v>13</v>
       </c>
-      <c r="Q4" s="44">
+      <c r="Q4" s="39">
         <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A5" s="40" t="s">
+      <c r="A5" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="B5" s="39">
+      <c r="B5" s="37">
         <v>1</v>
       </c>
-      <c r="C5" s="41" t="s">
-        <v>73</v>
-      </c>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="39"/>
-      <c r="J5" s="39"/>
-      <c r="K5" s="39"/>
-      <c r="L5" s="39"/>
-      <c r="M5" s="39"/>
-      <c r="N5" s="39"/>
-      <c r="O5" s="39"/>
-      <c r="P5" s="39"/>
-      <c r="Q5" s="39"/>
+      <c r="C5" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="37"/>
+      <c r="K5" s="37"/>
+      <c r="L5" s="37"/>
+      <c r="M5" s="37"/>
+      <c r="N5" s="37"/>
+      <c r="O5" s="37"/>
+      <c r="P5" s="37"/>
+      <c r="Q5" s="37"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A6" s="40"/>
-      <c r="B6" s="39">
+      <c r="A6" s="43"/>
+      <c r="B6" s="37">
         <v>2</v>
       </c>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="39"/>
-      <c r="I6" s="39"/>
-      <c r="J6" s="39"/>
-      <c r="K6" s="39"/>
-      <c r="L6" s="39"/>
-      <c r="M6" s="39"/>
-      <c r="N6" s="39"/>
-      <c r="O6" s="39"/>
-      <c r="P6" s="39"/>
-      <c r="Q6" s="39"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="37"/>
+      <c r="J6" s="37"/>
+      <c r="K6" s="37"/>
+      <c r="L6" s="37"/>
+      <c r="M6" s="37"/>
+      <c r="N6" s="37"/>
+      <c r="O6" s="37"/>
+      <c r="P6" s="37"/>
+      <c r="Q6" s="37"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A7" s="40"/>
-      <c r="B7" s="39">
+      <c r="A7" s="43"/>
+      <c r="B7" s="37">
         <v>3</v>
       </c>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="42" t="s">
-        <v>73</v>
-      </c>
-      <c r="F7" s="42"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39"/>
-      <c r="I7" s="39"/>
-      <c r="J7" s="39"/>
-      <c r="K7" s="39"/>
-      <c r="L7" s="39"/>
-      <c r="M7" s="39"/>
-      <c r="N7" s="39"/>
-      <c r="O7" s="39"/>
-      <c r="P7" s="39"/>
-      <c r="Q7" s="39"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="44" t="s">
+        <v>73</v>
+      </c>
+      <c r="F7" s="44"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="37"/>
+      <c r="J7" s="37"/>
+      <c r="K7" s="37"/>
+      <c r="L7" s="37"/>
+      <c r="M7" s="37"/>
+      <c r="N7" s="37"/>
+      <c r="O7" s="37"/>
+      <c r="P7" s="37"/>
+      <c r="Q7" s="37"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A8" s="40"/>
-      <c r="B8" s="39">
+      <c r="A8" s="43"/>
+      <c r="B8" s="37">
         <v>4</v>
       </c>
-      <c r="C8" s="39"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="41" t="s">
-        <v>73</v>
-      </c>
-      <c r="F8" s="39"/>
-      <c r="G8" s="39"/>
-      <c r="H8" s="39"/>
-      <c r="I8" s="39"/>
-      <c r="J8" s="39"/>
-      <c r="K8" s="39"/>
-      <c r="L8" s="39"/>
-      <c r="M8" s="39"/>
-      <c r="N8" s="39"/>
-      <c r="O8" s="39"/>
-      <c r="P8" s="39"/>
-      <c r="Q8" s="39"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="37"/>
+      <c r="J8" s="37"/>
+      <c r="K8" s="37"/>
+      <c r="L8" s="37"/>
+      <c r="M8" s="37"/>
+      <c r="N8" s="37"/>
+      <c r="O8" s="37"/>
+      <c r="P8" s="37"/>
+      <c r="Q8" s="37"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A9" s="40"/>
-      <c r="B9" s="39">
+      <c r="A9" s="43"/>
+      <c r="B9" s="37">
         <v>5</v>
       </c>
-      <c r="C9" s="39"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="42" t="s">
-        <v>73</v>
-      </c>
-      <c r="H9" s="42"/>
-      <c r="I9" s="42"/>
-      <c r="J9" s="42"/>
-      <c r="K9" s="42"/>
-      <c r="L9" s="39"/>
-      <c r="M9" s="42" t="s">
-        <v>73</v>
-      </c>
-      <c r="N9" s="42"/>
-      <c r="O9" s="42"/>
-      <c r="P9" s="39"/>
-      <c r="Q9" s="39"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="44" t="s">
+        <v>73</v>
+      </c>
+      <c r="H9" s="44"/>
+      <c r="I9" s="44"/>
+      <c r="J9" s="44"/>
+      <c r="K9" s="44"/>
+      <c r="L9" s="37"/>
+      <c r="M9" s="44" t="s">
+        <v>73</v>
+      </c>
+      <c r="N9" s="44"/>
+      <c r="O9" s="44"/>
+      <c r="P9" s="37"/>
+      <c r="Q9" s="37"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A10" s="40"/>
-      <c r="B10" s="39">
+      <c r="A10" s="43"/>
+      <c r="B10" s="37">
         <v>6</v>
       </c>
-      <c r="C10" s="39"/>
-      <c r="D10" s="39"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="39"/>
-      <c r="G10" s="39"/>
-      <c r="H10" s="39"/>
-      <c r="I10" s="39"/>
-      <c r="J10" s="39"/>
-      <c r="K10" s="39"/>
-      <c r="L10" s="39"/>
-      <c r="M10" s="39"/>
-      <c r="N10" s="39"/>
-      <c r="O10" s="39"/>
-      <c r="P10" s="39"/>
-      <c r="Q10" s="39"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="37"/>
+      <c r="J10" s="37"/>
+      <c r="K10" s="37"/>
+      <c r="L10" s="37"/>
+      <c r="M10" s="37"/>
+      <c r="N10" s="37"/>
+      <c r="O10" s="37"/>
+      <c r="P10" s="37"/>
+      <c r="Q10" s="37"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A11" s="40"/>
-      <c r="B11" s="39">
+      <c r="A11" s="43"/>
+      <c r="B11" s="37">
         <v>7</v>
       </c>
-      <c r="C11" s="39"/>
-      <c r="D11" s="41" t="s">
-        <v>73</v>
-      </c>
-      <c r="E11" s="39"/>
-      <c r="F11" s="41" t="s">
-        <v>73</v>
-      </c>
-      <c r="G11" s="39"/>
-      <c r="H11" s="41" t="s">
-        <v>73</v>
-      </c>
-      <c r="I11" s="39"/>
-      <c r="J11" s="41" t="s">
-        <v>73</v>
-      </c>
-      <c r="K11" s="39"/>
-      <c r="L11" s="39"/>
-      <c r="M11" s="39"/>
-      <c r="N11" s="39"/>
-      <c r="O11" s="39"/>
-      <c r="P11" s="39"/>
-      <c r="Q11" s="39"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="E11" s="37"/>
+      <c r="F11" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="G11" s="37"/>
+      <c r="H11" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="I11" s="37"/>
+      <c r="J11" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="K11" s="37"/>
+      <c r="L11" s="37"/>
+      <c r="M11" s="37"/>
+      <c r="N11" s="37"/>
+      <c r="O11" s="37"/>
+      <c r="P11" s="37"/>
+      <c r="Q11" s="37"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A12" s="40" t="s">
+      <c r="A12" s="43" t="s">
         <v>69</v>
       </c>
-      <c r="B12" s="39">
+      <c r="B12" s="37">
         <v>8</v>
       </c>
-      <c r="C12" s="41" t="s">
-        <v>73</v>
-      </c>
-      <c r="D12" s="39"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="39"/>
-      <c r="G12" s="39"/>
-      <c r="H12" s="39"/>
-      <c r="I12" s="39"/>
-      <c r="J12" s="39"/>
-      <c r="K12" s="39"/>
-      <c r="L12" s="39"/>
-      <c r="M12" s="39"/>
-      <c r="N12" s="39"/>
-      <c r="O12" s="39"/>
-      <c r="P12" s="39"/>
-      <c r="Q12" s="39"/>
+      <c r="C12" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="37"/>
+      <c r="I12" s="37"/>
+      <c r="J12" s="37"/>
+      <c r="K12" s="37"/>
+      <c r="L12" s="37"/>
+      <c r="M12" s="37"/>
+      <c r="N12" s="37"/>
+      <c r="O12" s="37"/>
+      <c r="P12" s="37"/>
+      <c r="Q12" s="37"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A13" s="40"/>
-      <c r="B13" s="39">
+      <c r="A13" s="43"/>
+      <c r="B13" s="37">
         <v>9</v>
       </c>
-      <c r="C13" s="39"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="39"/>
-      <c r="I13" s="39"/>
-      <c r="J13" s="39"/>
-      <c r="K13" s="39"/>
-      <c r="L13" s="39"/>
-      <c r="M13" s="39"/>
-      <c r="N13" s="39"/>
-      <c r="O13" s="39"/>
-      <c r="P13" s="39"/>
-      <c r="Q13" s="39"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="37"/>
+      <c r="I13" s="37"/>
+      <c r="J13" s="37"/>
+      <c r="K13" s="37"/>
+      <c r="L13" s="37"/>
+      <c r="M13" s="37"/>
+      <c r="N13" s="37"/>
+      <c r="O13" s="37"/>
+      <c r="P13" s="37"/>
+      <c r="Q13" s="37"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A14" s="40"/>
-      <c r="B14" s="39">
+      <c r="A14" s="43"/>
+      <c r="B14" s="37">
         <v>10</v>
       </c>
-      <c r="C14" s="39"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="42" t="s">
-        <v>73</v>
-      </c>
-      <c r="F14" s="42"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="39"/>
-      <c r="I14" s="39"/>
-      <c r="J14" s="39"/>
-      <c r="K14" s="39"/>
-      <c r="L14" s="39"/>
-      <c r="M14" s="39"/>
-      <c r="N14" s="39"/>
-      <c r="O14" s="39"/>
-      <c r="P14" s="39"/>
-      <c r="Q14" s="39"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="44" t="s">
+        <v>73</v>
+      </c>
+      <c r="F14" s="44"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="37"/>
+      <c r="I14" s="44" t="s">
+        <v>73</v>
+      </c>
+      <c r="J14" s="44"/>
+      <c r="K14" s="37"/>
+      <c r="L14" s="37"/>
+      <c r="M14" s="37"/>
+      <c r="N14" s="37"/>
+      <c r="O14" s="37"/>
+      <c r="P14" s="37"/>
+      <c r="Q14" s="37"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A15" s="40"/>
-      <c r="B15" s="39">
+      <c r="A15" s="43"/>
+      <c r="B15" s="37">
         <v>11</v>
       </c>
-      <c r="C15" s="39"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="41" t="s">
-        <v>73</v>
-      </c>
-      <c r="F15" s="39"/>
-      <c r="G15" s="39"/>
-      <c r="H15" s="39"/>
-      <c r="I15" s="39"/>
-      <c r="J15" s="39"/>
-      <c r="K15" s="39"/>
-      <c r="L15" s="39"/>
-      <c r="M15" s="39"/>
-      <c r="N15" s="39"/>
-      <c r="O15" s="39"/>
-      <c r="P15" s="39"/>
-      <c r="Q15" s="39"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="F15" s="37"/>
+      <c r="G15" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="H15" s="37"/>
+      <c r="I15" s="37"/>
+      <c r="J15" s="37"/>
+      <c r="K15" s="37"/>
+      <c r="L15" s="37"/>
+      <c r="M15" s="37"/>
+      <c r="N15" s="37"/>
+      <c r="O15" s="37"/>
+      <c r="P15" s="37"/>
+      <c r="Q15" s="37"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A16" s="40"/>
-      <c r="B16" s="39">
+      <c r="A16" s="43"/>
+      <c r="B16" s="37">
         <v>12</v>
       </c>
-      <c r="C16" s="39"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="42" t="s">
-        <v>73</v>
-      </c>
-      <c r="H16" s="42"/>
-      <c r="I16" s="42"/>
-      <c r="J16" s="42"/>
-      <c r="K16" s="42"/>
-      <c r="L16" s="39"/>
-      <c r="M16" s="42" t="s">
-        <v>73</v>
-      </c>
-      <c r="N16" s="42"/>
-      <c r="O16" s="42"/>
-      <c r="P16" s="39"/>
-      <c r="Q16" s="39"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="44" t="s">
+        <v>73</v>
+      </c>
+      <c r="H16" s="44"/>
+      <c r="I16" s="44"/>
+      <c r="J16" s="44"/>
+      <c r="K16" s="44"/>
+      <c r="L16" s="37"/>
+      <c r="M16" s="44" t="s">
+        <v>73</v>
+      </c>
+      <c r="N16" s="44"/>
+      <c r="O16" s="44"/>
+      <c r="P16" s="37"/>
+      <c r="Q16" s="37"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A17" s="40"/>
-      <c r="B17" s="39">
+      <c r="A17" s="43"/>
+      <c r="B17" s="37">
         <v>13</v>
       </c>
-      <c r="C17" s="39"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="39"/>
-      <c r="G17" s="39"/>
-      <c r="H17" s="39"/>
-      <c r="I17" s="39"/>
-      <c r="J17" s="39"/>
-      <c r="K17" s="39"/>
-      <c r="L17" s="39"/>
-      <c r="M17" s="39"/>
-      <c r="N17" s="39"/>
-      <c r="O17" s="39"/>
-      <c r="P17" s="39"/>
-      <c r="Q17" s="39"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="37"/>
+      <c r="I17" s="37"/>
+      <c r="J17" s="37"/>
+      <c r="K17" s="37"/>
+      <c r="L17" s="37"/>
+      <c r="M17" s="37"/>
+      <c r="N17" s="37"/>
+      <c r="O17" s="37"/>
+      <c r="P17" s="37"/>
+      <c r="Q17" s="37"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A18" s="40"/>
-      <c r="B18" s="39">
+      <c r="A18" s="43"/>
+      <c r="B18" s="37">
         <v>14</v>
       </c>
-      <c r="C18" s="39"/>
-      <c r="D18" s="41" t="s">
-        <v>73</v>
-      </c>
-      <c r="E18" s="39"/>
-      <c r="F18" s="41" t="s">
-        <v>73</v>
-      </c>
-      <c r="G18" s="39"/>
-      <c r="H18" s="41" t="s">
-        <v>73</v>
-      </c>
-      <c r="I18" s="39"/>
-      <c r="J18" s="41" t="s">
-        <v>73</v>
-      </c>
-      <c r="K18" s="39"/>
-      <c r="L18" s="39"/>
-      <c r="M18" s="39"/>
-      <c r="N18" s="39"/>
-      <c r="O18" s="39"/>
-      <c r="P18" s="39"/>
-      <c r="Q18" s="39"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="E18" s="37"/>
+      <c r="F18" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="G18" s="37"/>
+      <c r="H18" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="I18" s="37"/>
+      <c r="J18" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="K18" s="37"/>
+      <c r="L18" s="37"/>
+      <c r="M18" s="37"/>
+      <c r="N18" s="37"/>
+      <c r="O18" s="37"/>
+      <c r="P18" s="37"/>
+      <c r="Q18" s="37"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A12:A18"/>
-    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="I14:J14"/>
     <mergeCell ref="G16:K16"/>
     <mergeCell ref="M16:O16"/>
     <mergeCell ref="A2:B2"/>
@@ -2992,6 +2996,7 @@
     <mergeCell ref="E7:F7"/>
     <mergeCell ref="G9:K9"/>
     <mergeCell ref="M9:O9"/>
+    <mergeCell ref="E14:F14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2999,476 +3004,518 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5891AB96-3640-4460-AA71-501ACCEF12FC}">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="O26" sqref="O26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="11.26953125" style="37" customWidth="1"/>
+    <col min="1" max="1" width="11.26953125" style="35" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+      <c r="A1" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>72</v>
-      </c>
-      <c r="C1" s="37" t="s">
-        <v>6</v>
       </c>
       <c r="D1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="A2" s="35">
+        <v>44712</v>
+      </c>
+      <c r="B2" t="s">
         <v>68</v>
       </c>
-      <c r="B2">
+      <c r="C2">
         <v>1</v>
       </c>
-      <c r="C2" s="37">
+      <c r="D2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="35">
+        <v>44714</v>
+      </c>
+      <c r="B3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="35">
+        <v>44715</v>
+      </c>
+      <c r="B4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="35">
+        <v>44714</v>
+      </c>
+      <c r="B5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="35">
+        <v>44716</v>
+      </c>
+      <c r="B6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="35">
+        <v>44717</v>
+      </c>
+      <c r="B7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="35">
+        <v>44718</v>
+      </c>
+      <c r="B8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8">
+        <v>5</v>
+      </c>
+      <c r="D8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="35">
+        <v>44719</v>
+      </c>
+      <c r="B9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" s="35">
+        <v>44720</v>
+      </c>
+      <c r="B10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C10">
+        <v>5</v>
+      </c>
+      <c r="D10" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" s="35">
+        <v>44722</v>
+      </c>
+      <c r="B11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C11">
+        <v>5</v>
+      </c>
+      <c r="D11" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" s="35">
+        <v>44723</v>
+      </c>
+      <c r="B12" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12">
+        <v>5</v>
+      </c>
+      <c r="D12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" s="35">
+        <v>44724</v>
+      </c>
+      <c r="B13" t="s">
+        <v>68</v>
+      </c>
+      <c r="C13">
+        <v>5</v>
+      </c>
+      <c r="D13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" s="35">
+        <v>44713</v>
+      </c>
+      <c r="B14" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14">
+        <v>7</v>
+      </c>
+      <c r="D14" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" s="35">
+        <v>44715</v>
+      </c>
+      <c r="B15" t="s">
+        <v>68</v>
+      </c>
+      <c r="C15">
+        <v>7</v>
+      </c>
+      <c r="D15" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" s="35">
+        <v>44717</v>
+      </c>
+      <c r="B16" t="s">
+        <v>68</v>
+      </c>
+      <c r="C16">
+        <v>7</v>
+      </c>
+      <c r="D16" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" s="35">
+        <v>44719</v>
+      </c>
+      <c r="B17" t="s">
+        <v>68</v>
+      </c>
+      <c r="C17">
+        <v>7</v>
+      </c>
+      <c r="D17" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" s="35">
         <v>44712</v>
       </c>
-      <c r="D2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B3">
-        <v>3</v>
-      </c>
-      <c r="C3" s="37">
+      <c r="B18" t="s">
+        <v>69</v>
+      </c>
+      <c r="C18">
+        <v>8</v>
+      </c>
+      <c r="D18" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" s="35">
         <v>44714</v>
       </c>
-      <c r="D3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>68</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4" s="37">
+      <c r="B19" t="s">
+        <v>69</v>
+      </c>
+      <c r="C19">
+        <v>10</v>
+      </c>
+      <c r="D19" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" s="35">
         <v>44715</v>
       </c>
-      <c r="D4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>68</v>
-      </c>
-      <c r="B5">
-        <v>4</v>
-      </c>
-      <c r="C5" s="37">
+      <c r="B20" t="s">
+        <v>69</v>
+      </c>
+      <c r="C20">
+        <v>10</v>
+      </c>
+      <c r="D20" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" s="35">
+        <v>44718</v>
+      </c>
+      <c r="B21" t="s">
+        <v>69</v>
+      </c>
+      <c r="C21">
+        <v>10</v>
+      </c>
+      <c r="D21" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" s="35">
+        <v>44719</v>
+      </c>
+      <c r="B22" t="s">
+        <v>69</v>
+      </c>
+      <c r="C22">
+        <v>10</v>
+      </c>
+      <c r="D22" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" s="35">
         <v>44714</v>
       </c>
-      <c r="D5" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>68</v>
-      </c>
-      <c r="B6">
-        <v>5</v>
-      </c>
-      <c r="C6" s="37">
+      <c r="B23" t="s">
+        <v>69</v>
+      </c>
+      <c r="C23">
+        <v>11</v>
+      </c>
+      <c r="D23" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24" s="35">
         <v>44716</v>
       </c>
-      <c r="D6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>68</v>
-      </c>
-      <c r="B7">
-        <v>5</v>
-      </c>
-      <c r="C7" s="37">
+      <c r="B24" t="s">
+        <v>69</v>
+      </c>
+      <c r="C24">
+        <v>11</v>
+      </c>
+      <c r="D24" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" s="35">
+        <v>44716</v>
+      </c>
+      <c r="B25" t="s">
+        <v>69</v>
+      </c>
+      <c r="C25">
+        <v>12</v>
+      </c>
+      <c r="D25" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" s="35">
         <v>44717</v>
       </c>
-      <c r="D7" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>68</v>
-      </c>
-      <c r="B8">
-        <v>5</v>
-      </c>
-      <c r="C8" s="37">
+      <c r="B26" t="s">
+        <v>69</v>
+      </c>
+      <c r="C26">
+        <v>12</v>
+      </c>
+      <c r="D26" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27" s="35">
         <v>44718</v>
       </c>
-      <c r="D8" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>68</v>
-      </c>
-      <c r="B9">
-        <v>5</v>
-      </c>
-      <c r="C9" s="37">
+      <c r="B27" t="s">
+        <v>69</v>
+      </c>
+      <c r="C27">
+        <v>12</v>
+      </c>
+      <c r="D27" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28" s="35">
         <v>44719</v>
       </c>
-      <c r="D9" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>68</v>
-      </c>
-      <c r="B10">
-        <v>5</v>
-      </c>
-      <c r="C10" s="37">
+      <c r="B28" t="s">
+        <v>69</v>
+      </c>
+      <c r="C28">
+        <v>12</v>
+      </c>
+      <c r="D28" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29" s="35">
         <v>44720</v>
       </c>
-      <c r="D10" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>68</v>
-      </c>
-      <c r="B11">
-        <v>5</v>
-      </c>
-      <c r="C11" s="37">
+      <c r="B29" t="s">
+        <v>69</v>
+      </c>
+      <c r="C29">
+        <v>12</v>
+      </c>
+      <c r="D29" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30" s="35">
         <v>44722</v>
       </c>
-      <c r="D11" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>68</v>
-      </c>
-      <c r="B12">
-        <v>5</v>
-      </c>
-      <c r="C12" s="37">
+      <c r="B30" t="s">
+        <v>69</v>
+      </c>
+      <c r="C30">
+        <v>12</v>
+      </c>
+      <c r="D30" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A31" s="35">
         <v>44723</v>
       </c>
-      <c r="D12" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>68</v>
-      </c>
-      <c r="B13">
-        <v>5</v>
-      </c>
-      <c r="C13" s="37">
+      <c r="B31" t="s">
+        <v>69</v>
+      </c>
+      <c r="C31">
+        <v>12</v>
+      </c>
+      <c r="D31" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32" s="35">
         <v>44724</v>
       </c>
-      <c r="D13" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>68</v>
-      </c>
-      <c r="B14">
-        <v>7</v>
-      </c>
-      <c r="C14" s="37">
+      <c r="B32" t="s">
+        <v>69</v>
+      </c>
+      <c r="C32">
+        <v>12</v>
+      </c>
+      <c r="D32" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A33" s="35">
         <v>44713</v>
       </c>
-      <c r="D14" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>68</v>
-      </c>
-      <c r="B15">
-        <v>7</v>
-      </c>
-      <c r="C15" s="37">
+      <c r="B33" t="s">
+        <v>69</v>
+      </c>
+      <c r="C33">
+        <v>14</v>
+      </c>
+      <c r="D33" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A34" s="35">
         <v>44715</v>
       </c>
-      <c r="D15" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>68</v>
-      </c>
-      <c r="B16">
-        <v>7</v>
-      </c>
-      <c r="C16" s="37">
+      <c r="B34" t="s">
+        <v>69</v>
+      </c>
+      <c r="C34">
+        <v>14</v>
+      </c>
+      <c r="D34" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A35" s="35">
         <v>44717</v>
       </c>
-      <c r="D16" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>68</v>
-      </c>
-      <c r="B17">
-        <v>7</v>
-      </c>
-      <c r="C17" s="37">
+      <c r="B35" t="s">
+        <v>69</v>
+      </c>
+      <c r="C35">
+        <v>14</v>
+      </c>
+      <c r="D35" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A36" s="35">
         <v>44719</v>
       </c>
-      <c r="D17" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
+      <c r="B36" t="s">
         <v>69</v>
       </c>
-      <c r="B18">
-        <v>8</v>
-      </c>
-      <c r="C18" s="37">
-        <v>44712</v>
-      </c>
-      <c r="D18" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>69</v>
-      </c>
-      <c r="B19">
-        <v>10</v>
-      </c>
-      <c r="C19" s="37">
-        <v>44714</v>
-      </c>
-      <c r="D19" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>69</v>
-      </c>
-      <c r="B20">
-        <v>10</v>
-      </c>
-      <c r="C20" s="37">
-        <v>44715</v>
-      </c>
-      <c r="D20" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>69</v>
-      </c>
-      <c r="B21">
-        <v>11</v>
-      </c>
-      <c r="C21" s="37">
-        <v>44714</v>
-      </c>
-      <c r="D21" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>69</v>
-      </c>
-      <c r="B22">
-        <v>12</v>
-      </c>
-      <c r="C22" s="37">
-        <v>44716</v>
-      </c>
-      <c r="D22" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>69</v>
-      </c>
-      <c r="B23">
-        <v>12</v>
-      </c>
-      <c r="C23" s="37">
-        <v>44717</v>
-      </c>
-      <c r="D23" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>69</v>
-      </c>
-      <c r="B24">
-        <v>12</v>
-      </c>
-      <c r="C24" s="37">
-        <v>44718</v>
-      </c>
-      <c r="D24" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>69</v>
-      </c>
-      <c r="B25">
-        <v>12</v>
-      </c>
-      <c r="C25" s="37">
-        <v>44719</v>
-      </c>
-      <c r="D25" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>69</v>
-      </c>
-      <c r="B26">
-        <v>12</v>
-      </c>
-      <c r="C26" s="37">
-        <v>44720</v>
-      </c>
-      <c r="D26" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>69</v>
-      </c>
-      <c r="B27">
-        <v>12</v>
-      </c>
-      <c r="C27" s="37">
-        <v>44722</v>
-      </c>
-      <c r="D27" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>69</v>
-      </c>
-      <c r="B28">
-        <v>12</v>
-      </c>
-      <c r="C28" s="37">
-        <v>44723</v>
-      </c>
-      <c r="D28" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>69</v>
-      </c>
-      <c r="B29">
-        <v>12</v>
-      </c>
-      <c r="C29" s="37">
-        <v>44724</v>
-      </c>
-      <c r="D29" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
-        <v>69</v>
-      </c>
-      <c r="B30">
+      <c r="C36">
         <v>14</v>
       </c>
-      <c r="C30" s="37">
-        <v>44713</v>
-      </c>
-      <c r="D30" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
-        <v>69</v>
-      </c>
-      <c r="B31">
-        <v>14</v>
-      </c>
-      <c r="C31" s="37">
-        <v>44715</v>
-      </c>
-      <c r="D31" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
-        <v>69</v>
-      </c>
-      <c r="B32">
-        <v>14</v>
-      </c>
-      <c r="C32" s="37">
-        <v>44717</v>
-      </c>
-      <c r="D32" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
-        <v>69</v>
-      </c>
-      <c r="B33">
-        <v>14</v>
-      </c>
-      <c r="C33" s="37">
-        <v>44719</v>
-      </c>
-      <c r="D33" t="s">
+      <c r="D36" t="s">
         <v>73</v>
       </c>
     </row>
